--- a/LLM-eval/file/suite/32_function_list.xlsx
+++ b/LLM-eval/file/suite/32_function_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\LLM-eval\file\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\i-eval.git\LLM-eval\file\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67277FB-9C52-4BC4-9DB9-5F0463BC1581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9E7012-9A4D-4A82-B126-1ED2AC0F8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>序号</t>
   </si>
@@ -224,7 +224,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"completionTokens":"100","fcCount":1}</t>
+    <t>{"fcCount":1}</t>
+  </si>
+  <si>
+    <t>{"fcCount":1}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,7 +644,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
